--- a/AESO_Connection_List.xlsx
+++ b/AESO_Connection_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Education\Masters Degree\Aurora\R Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A28B82-FF9C-44C8-B002-5B97B296F8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24024769-ABBA-4F68-8B45-2E9F28CA07C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="870" windowWidth="29040" windowHeight="15720" xr2:uid="{BF637F28-E94E-4F15-8C63-FF6873371EB3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF637F28-E94E-4F15-8C63-FF6873371EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="182">
   <si>
     <t>Project name</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>P2098 TransAlta Tempest MPC Wind</t>
-  </si>
-  <si>
-    <t>Rattlesnake Ridge MPC Wind</t>
   </si>
   <si>
     <t>Jenner Wind</t>
@@ -987,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F2A0D-5110-4FB1-9571-D559F0CE0559}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,7 +1051,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>250</v>
@@ -1105,7 +1102,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>250</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>200</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
         <v>250</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>409</v>
@@ -1241,7 +1238,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>120</v>
@@ -1292,7 +1289,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>109.2</v>
@@ -1325,51 +1322,51 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
+      <c r="A20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>117.6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>49.910587999999997</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-111.059969</v>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50.82</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-111.07</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
+      <c r="A21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>71.400000000000006</v>
+        <v>122.4</v>
       </c>
       <c r="C21" s="2">
-        <v>50.82</v>
+        <v>50.823093999999998</v>
       </c>
       <c r="D21" s="2">
-        <v>-111.07</v>
+        <v>-111.072068</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
+      <c r="A22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>122.4</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2">
-        <v>50.823093999999998</v>
+        <v>49.935732000000002</v>
       </c>
       <c r="D22" s="2">
-        <v>-111.072068</v>
+        <v>-111.088595</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>33</v>
@@ -1377,50 +1374,50 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2">
-        <v>49.935732000000002</v>
+        <v>53.215192000000002</v>
       </c>
       <c r="D23" s="2">
-        <v>-111.088595</v>
+        <v>-111.09492899999999</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
+      <c r="A24" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B24" s="2">
-        <v>154</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C24" s="2">
-        <v>53.215192000000002</v>
+        <v>50.727800999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>-111.09492899999999</v>
+        <v>-111.118579</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
+      <c r="A25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>4.5999999999999996</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2">
-        <v>50.727800999999999</v>
+        <v>49.663338000000003</v>
       </c>
       <c r="D25" s="2">
-        <v>-111.118579</v>
+        <v>-111.12226</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>33</v>
@@ -1428,16 +1425,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2">
-        <v>49.663338000000003</v>
+        <v>52.141719000000002</v>
       </c>
       <c r="D26" s="2">
-        <v>-111.12226</v>
+        <v>-111.12590299999999</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>33</v>
@@ -1445,16 +1442,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2">
-        <v>52.141719000000002</v>
+        <v>49.611555000000003</v>
       </c>
       <c r="D27" s="2">
-        <v>-111.12590299999999</v>
+        <v>-111.14373500000001</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
@@ -1462,16 +1459,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2">
-        <v>49.611555000000003</v>
+        <v>49.11795</v>
       </c>
       <c r="D28" s="2">
-        <v>-111.14373500000001</v>
+        <v>-111.20680900000001</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>33</v>
@@ -1479,16 +1476,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>266</v>
+        <v>450</v>
       </c>
       <c r="C29" s="2">
-        <v>49.11795</v>
+        <v>49.505369000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>-111.20680900000001</v>
+        <v>-111.21256099999999</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>33</v>
@@ -1496,16 +1493,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2">
-        <v>49.505369000000002</v>
+        <v>51.973483000000002</v>
       </c>
       <c r="D30" s="2">
-        <v>-111.21256099999999</v>
+        <v>-111.833432</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>33</v>
@@ -1513,33 +1510,33 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C31" s="2">
-        <v>51.973483000000002</v>
+        <v>52.26</v>
       </c>
       <c r="D31" s="2">
-        <v>-111.833432</v>
+        <v>-112.03</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>43</v>
+      <c r="A32" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C32" s="2">
-        <v>52.26</v>
+        <v>52.182751000000003</v>
       </c>
       <c r="D32" s="2">
-        <v>-112.03</v>
+        <v>-112.06189000000001</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
@@ -1547,16 +1544,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2">
-        <v>52.182751000000003</v>
+        <v>49.574762999999997</v>
       </c>
       <c r="D33" s="2">
-        <v>-112.06189000000001</v>
+        <v>-112.273239</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>33</v>
@@ -1564,16 +1561,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2">
-        <v>49.574762999999997</v>
+        <v>49.569280999999997</v>
       </c>
       <c r="D34" s="2">
-        <v>-112.273239</v>
+        <v>-112.31146</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>33</v>
@@ -1581,16 +1578,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
-        <v>100</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="C35" s="2">
-        <v>49.569280999999997</v>
+        <v>51.59</v>
       </c>
       <c r="D35" s="2">
-        <v>-112.31146</v>
+        <v>-112.32</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>33</v>
@@ -1598,16 +1595,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2">
-        <v>150.80000000000001</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2">
-        <v>51.59</v>
+        <v>49.564155999999997</v>
       </c>
       <c r="D36" s="2">
-        <v>-112.32</v>
+        <v>-112.358926</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>33</v>
@@ -1615,33 +1612,33 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2">
-        <v>39</v>
-      </c>
-      <c r="C37" s="2">
-        <v>49.564155999999997</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-112.358926</v>
+        <v>128</v>
+      </c>
+      <c r="C37" s="1">
+        <v>49.576659999999997</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-112.387398</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>24</v>
+      <c r="A38" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B38" s="2">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1">
-        <v>49.576659999999997</v>
+        <v>51.237502999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>-112.387398</v>
+        <v>-112.426214</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>33</v>
@@ -1649,33 +1646,33 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>120</v>
-      </c>
-      <c r="C39" s="1">
-        <v>51.237502999999997</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-112.426214</v>
+        <v>175</v>
+      </c>
+      <c r="C39" s="2">
+        <v>51.208936999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-112.729266</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>50</v>
+      <c r="A40" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B40" s="2">
-        <v>175</v>
+        <v>466</v>
       </c>
       <c r="C40" s="2">
-        <v>51.208936999999999</v>
+        <v>50.383988000000002</v>
       </c>
       <c r="D40" s="2">
-        <v>-112.729266</v>
+        <v>-112.774255</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>33</v>
@@ -1683,67 +1680,67 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>466</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2">
-        <v>50.383988000000002</v>
+        <v>49.31</v>
       </c>
       <c r="D41" s="2">
-        <v>-112.774255</v>
+        <v>-112.93</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>46</v>
+      <c r="A42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B42" s="2">
+        <v>250</v>
+      </c>
+      <c r="C42" s="2">
+        <v>49.636068999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-113.38463</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>70</v>
+      </c>
+      <c r="C43" s="2">
+        <v>49.585850000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-113.437365</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
         <v>300</v>
       </c>
-      <c r="C42" s="2">
-        <v>49.31</v>
-      </c>
-      <c r="D42" s="2">
-        <v>-112.93</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="2">
-        <v>250</v>
-      </c>
-      <c r="C43" s="2">
-        <v>49.636068999999999</v>
-      </c>
-      <c r="D43" s="2">
-        <v>-113.38463</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2">
-        <v>70</v>
-      </c>
       <c r="C44" s="2">
-        <v>49.585850000000001</v>
+        <v>49.219557000000002</v>
       </c>
       <c r="D44" s="2">
-        <v>-113.437365</v>
+        <v>-113.681152</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>33</v>
@@ -1751,16 +1748,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
-        <v>49.219557000000002</v>
+        <v>49.484377000000002</v>
       </c>
       <c r="D45" s="2">
-        <v>-113.681152</v>
+        <v>-113.833523</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>33</v>
@@ -1768,105 +1765,101 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
-        <v>47</v>
+        <v>22.4</v>
       </c>
       <c r="C46" s="2">
-        <v>49.484377000000002</v>
+        <v>49.476188999999998</v>
       </c>
       <c r="D46" s="2">
-        <v>-113.833523</v>
+        <v>-114.01845900000001</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>9</v>
+      <c r="A47" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>22.4</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2">
-        <v>49.476188999999998</v>
+        <v>54.758699999999997</v>
       </c>
       <c r="D47" s="2">
-        <v>-114.01845900000001</v>
+        <v>-115.5667</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>400</v>
-      </c>
-      <c r="C48" s="2">
-        <v>54.758699999999997</v>
-      </c>
-      <c r="D48" s="2">
-        <v>-115.5667</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>33</v>
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6">
-        <v>100</v>
+      <c r="B49" s="7">
+        <v>17</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
-        <v>165</v>
+      <c r="E49" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="7">
-        <v>17</v>
+      <c r="B50" s="6">
+        <v>20.8</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="4" t="s">
-        <v>165</v>
+      <c r="E50" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6">
-        <v>20.8</v>
+      <c r="B51" s="7">
+        <v>21</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="3" t="s">
-        <v>165</v>
+      <c r="E51" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="7">
-        <v>21</v>
+      <c r="B52" s="6">
+        <v>20</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="4" t="s">
-        <v>165</v>
+      <c r="E52" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,25 +1867,25 @@
         <v>57</v>
       </c>
       <c r="B53" s="6">
-        <v>20</v>
+        <v>28.5</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="6">
-        <v>28.5</v>
+      <c r="B54" s="7">
+        <v>13</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="3" t="s">
-        <v>165</v>
+      <c r="E54" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,103 +1893,103 @@
         <v>59</v>
       </c>
       <c r="B55" s="7">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="7">
-        <v>150</v>
+      <c r="B56" s="6">
+        <v>400</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="4" t="s">
-        <v>165</v>
+      <c r="E56" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="6">
-        <v>400</v>
+      <c r="B57" s="7">
+        <v>0</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="3" t="s">
-        <v>165</v>
+      <c r="E57" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="7">
-        <v>0</v>
+      <c r="B58" s="6">
+        <v>61</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="4" t="s">
-        <v>165</v>
+      <c r="E58" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="6">
-        <v>61</v>
+      <c r="B59" s="7">
+        <v>0</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="7">
-        <v>0</v>
+      <c r="B60" s="6">
+        <v>11.9</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="4" t="s">
-        <v>166</v>
+      <c r="E60" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="6">
-        <v>11.9</v>
+      <c r="B61" s="7">
+        <v>450</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="3" t="s">
-        <v>165</v>
+      <c r="E61" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="7">
-        <v>450</v>
+      <c r="B62" s="6">
+        <v>120</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="4" t="s">
-        <v>165</v>
+      <c r="E62" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,25 +1997,25 @@
         <v>67</v>
       </c>
       <c r="B63" s="6">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="6">
-        <v>14</v>
+      <c r="B64" s="7">
+        <v>11</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="3" t="s">
-        <v>165</v>
+      <c r="E64" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,38 +2023,38 @@
         <v>69</v>
       </c>
       <c r="B65" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="7">
-        <v>12</v>
+      <c r="B66" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="4" t="s">
-        <v>165</v>
+      <c r="E66" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="6">
-        <v>1.1000000000000001</v>
+      <c r="B67" s="7">
+        <v>9.25</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="3" t="s">
-        <v>165</v>
+      <c r="E67" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,25 +2062,25 @@
         <v>72</v>
       </c>
       <c r="B68" s="7">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="7">
-        <v>10.5</v>
+      <c r="B69" s="6">
+        <v>90</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="4" t="s">
-        <v>165</v>
+      <c r="E69" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,7 +2088,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="6">
-        <v>90</v>
+        <v>13.5</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2104,29 +2097,29 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="6">
-        <v>13.5</v>
+      <c r="B71" s="7">
+        <v>22</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="3" t="s">
-        <v>166</v>
+      <c r="E71" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="7">
-        <v>22</v>
+      <c r="B72" s="6">
+        <v>15.5</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="4" t="s">
-        <v>165</v>
+      <c r="E72" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,7 +2127,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="6">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2147,12 +2140,12 @@
         <v>78</v>
       </c>
       <c r="B74" s="6">
-        <v>22</v>
+        <v>2.1</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2160,7 +2153,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="6">
-        <v>2.1</v>
+        <v>18</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2173,12 +2166,12 @@
         <v>80</v>
       </c>
       <c r="B76" s="6">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,25 +2179,25 @@
         <v>81</v>
       </c>
       <c r="B77" s="6">
-        <v>65</v>
+        <v>22.8</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="6">
-        <v>22.8</v>
+      <c r="B78" s="7">
+        <v>18</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="3" t="s">
-        <v>165</v>
+      <c r="E78" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,103 +2205,103 @@
         <v>83</v>
       </c>
       <c r="B79" s="7">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="7">
-        <v>200</v>
+      <c r="B80" s="6">
+        <v>16.399999999999999</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="4" t="s">
-        <v>165</v>
+      <c r="E80" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="6">
-        <v>16.399999999999999</v>
+      <c r="B81" s="7">
+        <v>15</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="3" t="s">
-        <v>165</v>
+      <c r="E81" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="7">
-        <v>15</v>
+      <c r="B82" s="6">
+        <v>13.3</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="4" t="s">
-        <v>165</v>
+      <c r="E82" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="6">
-        <v>13.3</v>
+      <c r="B83" s="7">
+        <v>9.1999999999999993</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="3" t="s">
-        <v>165</v>
+      <c r="E83" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="7">
-        <v>9.1999999999999993</v>
+      <c r="B84" s="6">
+        <v>117.5</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="6">
-        <v>117.5</v>
+      <c r="B85" s="7">
+        <v>12.6</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="3" t="s">
-        <v>166</v>
+      <c r="E85" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="7">
-        <v>12.6</v>
+      <c r="B86" s="6">
+        <v>216</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="4" t="s">
-        <v>165</v>
+      <c r="E86" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,103 +2309,103 @@
         <v>91</v>
       </c>
       <c r="B87" s="6">
-        <v>216</v>
+        <v>2.7</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="6">
-        <v>2.7</v>
+      <c r="B88" s="7">
+        <v>220</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="3" t="s">
-        <v>165</v>
+      <c r="E88" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="7">
-        <v>220</v>
+      <c r="B89" s="6">
+        <v>60</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="4" t="s">
-        <v>165</v>
+      <c r="E89" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="6">
-        <v>60</v>
+      <c r="B90" s="7">
+        <v>5.8</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="3" t="s">
-        <v>165</v>
+      <c r="E90" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="7">
-        <v>5.8</v>
+      <c r="B91" s="6">
+        <v>22</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="4" t="s">
-        <v>165</v>
+      <c r="E91" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="6">
-        <v>22</v>
+      <c r="B92" s="7">
+        <v>17.899999999999999</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="3" t="s">
-        <v>165</v>
+      <c r="E92" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="7">
-        <v>17.899999999999999</v>
+      <c r="B93" s="6">
+        <v>9.3000000000000007</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="4" t="s">
-        <v>165</v>
+      <c r="E93" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="6">
-        <v>9.3000000000000007</v>
+      <c r="B94" s="7">
+        <v>22.7</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="3" t="s">
-        <v>165</v>
+      <c r="E94" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,12 +2413,12 @@
         <v>99</v>
       </c>
       <c r="B95" s="7">
-        <v>22.7</v>
+        <v>150</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,12 +2426,12 @@
         <v>100</v>
       </c>
       <c r="B96" s="7">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,24 +2439,24 @@
         <v>101</v>
       </c>
       <c r="B97" s="7">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="7">
-        <v>75</v>
+      <c r="B98" s="6">
+        <v>300</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2472,76 +2465,76 @@
         <v>103</v>
       </c>
       <c r="B99" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="7">
         <v>200</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="3" t="s">
-        <v>166</v>
+      <c r="E100" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="7">
-        <v>200</v>
+      <c r="B101" s="6">
+        <v>180</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="4" t="s">
-        <v>165</v>
+      <c r="E101" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="6">
-        <v>180</v>
+      <c r="B102" s="7">
+        <v>150</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="3" t="s">
-        <v>165</v>
+      <c r="E102" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="7">
-        <v>150</v>
+      <c r="B103" s="6">
+        <v>12.6</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="4" t="s">
-        <v>165</v>
+      <c r="E103" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="6">
-        <v>12.6</v>
+      <c r="B104" s="7">
+        <v>465</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2550,38 +2543,38 @@
         <v>109</v>
       </c>
       <c r="B105" s="7">
-        <v>465</v>
+        <v>20.3</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="7">
-        <v>20.3</v>
+      <c r="B106" s="6">
+        <v>61.9</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="4" t="s">
-        <v>165</v>
+      <c r="E106" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="6">
-        <v>61.9</v>
+      <c r="B107" s="7">
+        <v>20.2</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="3" t="s">
-        <v>165</v>
+      <c r="E107" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,90 +2582,90 @@
         <v>112</v>
       </c>
       <c r="B108" s="7">
-        <v>20.2</v>
+        <v>325</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="7">
-        <v>325</v>
+      <c r="B109" s="6">
+        <v>400</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="4" t="s">
-        <v>165</v>
+      <c r="E109" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="6">
-        <v>400</v>
+      <c r="B110" s="7">
+        <v>19.600000000000001</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="7">
-        <v>19.600000000000001</v>
+      <c r="B111" s="6">
+        <v>530</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="4" t="s">
-        <v>166</v>
+      <c r="E111" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="6">
-        <v>530</v>
+      <c r="B112" s="7">
+        <v>16.75</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="3" t="s">
-        <v>166</v>
+      <c r="E112" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="7">
-        <v>16.75</v>
+      <c r="B113" s="6">
+        <v>88</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="4" t="s">
-        <v>165</v>
+      <c r="E113" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="6">
-        <v>88</v>
+      <c r="B114" s="7">
+        <v>22</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="3" t="s">
-        <v>165</v>
+      <c r="E114" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,51 +2673,51 @@
         <v>119</v>
       </c>
       <c r="B115" s="7">
-        <v>22</v>
+        <v>450</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="7">
-        <v>450</v>
+      <c r="B116" s="6">
+        <v>12.2</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="4" t="s">
-        <v>165</v>
+      <c r="E116" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="6">
-        <v>12.2</v>
+      <c r="B117" s="7">
+        <v>120</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B118" s="7">
-        <v>120</v>
+      <c r="B118" s="6">
+        <v>350</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="4" t="s">
-        <v>166</v>
+      <c r="E118" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,12 +2725,12 @@
         <v>123</v>
       </c>
       <c r="B119" s="6">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,25 +2738,25 @@
         <v>124</v>
       </c>
       <c r="B120" s="6">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="6">
-        <v>22</v>
+      <c r="B121" s="7">
+        <v>15.1</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="3" t="s">
-        <v>165</v>
+      <c r="E121" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,25 +2764,25 @@
         <v>126</v>
       </c>
       <c r="B122" s="7">
-        <v>15.1</v>
+        <v>22</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="7">
-        <v>22</v>
+      <c r="B123" s="6">
+        <v>80</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="4" t="s">
-        <v>165</v>
+      <c r="E123" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2797,103 +2790,103 @@
         <v>128</v>
       </c>
       <c r="B124" s="6">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B125" s="6">
-        <v>299</v>
+      <c r="B125" s="7">
+        <v>22.3</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="3" t="s">
-        <v>165</v>
+      <c r="E125" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B126" s="7">
-        <v>22.3</v>
+      <c r="B126" s="6">
+        <v>120</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="4" t="s">
-        <v>165</v>
+      <c r="E126" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="6">
-        <v>120</v>
+      <c r="B127" s="7">
+        <v>465</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="7">
-        <v>465</v>
+      <c r="B128" s="6">
+        <v>400</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="4" t="s">
-        <v>166</v>
+      <c r="E128" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="6">
-        <v>400</v>
+      <c r="B129" s="7">
+        <v>200</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="3" t="s">
-        <v>165</v>
+      <c r="E129" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="7">
-        <v>200</v>
+      <c r="B130" s="6">
+        <v>8.75</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="4" t="s">
-        <v>165</v>
+      <c r="E130" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="6">
-        <v>8.75</v>
+      <c r="B131" s="7">
+        <v>75</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="3" t="s">
-        <v>165</v>
+      <c r="E131" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,12 +2894,12 @@
         <v>136</v>
       </c>
       <c r="B132" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,116 +2907,116 @@
         <v>137</v>
       </c>
       <c r="B133" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="7">
-        <v>100</v>
+      <c r="B134" s="6">
+        <v>18.2</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="6">
-        <v>18.2</v>
+      <c r="B135" s="7">
+        <v>16.3</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="3" t="s">
-        <v>166</v>
+      <c r="E135" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="7">
-        <v>16.3</v>
+      <c r="B136" s="6">
+        <v>18.399999999999999</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="4" t="s">
-        <v>166</v>
+      <c r="E136" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="6">
-        <v>18.399999999999999</v>
+      <c r="B137" s="7">
+        <v>18</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="3" t="s">
-        <v>165</v>
+      <c r="E137" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="7">
-        <v>18</v>
+      <c r="B138" s="6">
+        <v>350</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="4" t="s">
-        <v>165</v>
+      <c r="E138" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="6">
-        <v>350</v>
+      <c r="B139" s="7">
+        <v>150</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="3" t="s">
-        <v>165</v>
+      <c r="E139" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="7">
-        <v>150</v>
+      <c r="B140" s="6">
+        <v>12</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="4" t="s">
-        <v>165</v>
+      <c r="E140" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="6">
-        <v>12</v>
+      <c r="B141" s="7">
+        <v>40</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="3" t="s">
-        <v>165</v>
+      <c r="E141" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,25 +3024,25 @@
         <v>146</v>
       </c>
       <c r="B142" s="7">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="7">
-        <v>150</v>
+      <c r="B143" s="6">
+        <v>400</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="4" t="s">
-        <v>165</v>
+      <c r="E143" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,38 +3050,38 @@
         <v>148</v>
       </c>
       <c r="B144" s="6">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B145" s="6">
-        <v>37</v>
+      <c r="B145" s="7">
+        <v>8.5</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="3" t="s">
-        <v>165</v>
+      <c r="E145" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B146" s="7">
-        <v>8.5</v>
+      <c r="B146" s="6">
+        <v>18.3</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="4" t="s">
-        <v>165</v>
+      <c r="E146" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,90 +3089,90 @@
         <v>151</v>
       </c>
       <c r="B147" s="6">
-        <v>18.3</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="6">
-        <v>60</v>
+      <c r="B148" s="7">
+        <v>17.5</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="7">
-        <v>17.5</v>
+      <c r="B149" s="6">
+        <v>9.8000000000000007</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="4" t="s">
-        <v>166</v>
+      <c r="E149" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B150" s="6">
-        <v>9.8000000000000007</v>
+      <c r="B150" s="7">
+        <v>400</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="3" t="s">
-        <v>165</v>
+      <c r="E150" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B151" s="7">
-        <v>400</v>
+      <c r="B151" s="6">
+        <v>16.7</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="4" t="s">
-        <v>165</v>
+      <c r="E151" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B152" s="6">
-        <v>16.7</v>
+      <c r="B152" s="7">
+        <v>19.5</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="3" t="s">
-        <v>165</v>
+      <c r="E152" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B153" s="7">
-        <v>19.5</v>
+      <c r="B153" s="6">
+        <v>13</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="4" t="s">
-        <v>165</v>
+      <c r="E153" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,12 +3180,12 @@
         <v>158</v>
       </c>
       <c r="B154" s="6">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3200,12 +3193,12 @@
         <v>159</v>
       </c>
       <c r="B155" s="6">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,25 +3206,25 @@
         <v>160</v>
       </c>
       <c r="B156" s="6">
-        <v>40</v>
+        <v>21.6</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B157" s="6">
-        <v>21.6</v>
+      <c r="B157" s="7">
+        <v>4</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="3" t="s">
-        <v>165</v>
+      <c r="E157" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,7 +3232,7 @@
         <v>162</v>
       </c>
       <c r="B158" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3248,81 +3241,81 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B159" s="7">
-        <v>100</v>
+      <c r="B159" s="6">
+        <v>16.3</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" s="6">
-        <v>16.3</v>
+      <c r="B160" s="7">
+        <v>75</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="3" t="s">
-        <v>165</v>
+      <c r="E160" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="7">
-        <v>75</v>
+      <c r="B161" s="6">
+        <v>33.9</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="6">
-        <v>33.9</v>
+      <c r="B162" s="7">
+        <v>16</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="3" t="s">
-        <v>180</v>
+      <c r="E162" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="7">
-        <v>16</v>
+      <c r="B163" s="6">
+        <v>0</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="4" t="s">
-        <v>180</v>
+      <c r="E163" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="6">
-        <v>0</v>
+      <c r="B164" s="7">
+        <v>18.8</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="3" t="s">
-        <v>180</v>
+      <c r="E164" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,12 +3323,12 @@
         <v>171</v>
       </c>
       <c r="B165" s="7">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3343,51 +3336,51 @@
         <v>172</v>
       </c>
       <c r="B166" s="7">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="7">
-        <v>50</v>
+      <c r="B167" s="6">
+        <v>0</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="7">
         <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B168" s="6">
-        <v>0</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="3" t="s">
-        <v>180</v>
+      <c r="E168" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="7">
-        <v>180</v>
+      <c r="B169" s="6">
+        <v>38.200000000000003</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="4" t="s">
-        <v>180</v>
+      <c r="E169" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3395,51 +3388,38 @@
         <v>176</v>
       </c>
       <c r="B170" s="6">
-        <v>38.200000000000003</v>
+        <v>40</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="6">
-        <v>40</v>
+      <c r="B171" s="7">
+        <v>0</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B172" s="7">
-        <v>0</v>
+      <c r="B172" s="6">
+        <v>320</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B173" s="6">
-        <v>320</v>
-      </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/AESO_Connection_List.xlsx
+++ b/AESO_Connection_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB313DC1-02C2-49CE-B642-732BEEB3F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74846B4-EF12-4083-BF4C-CFFA82257EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{BF637F28-E94E-4F15-8C63-FF6873371EB3}"/>
   </bookViews>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F2A0D-5110-4FB1-9571-D559F0CE0559}">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="A38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,19 +1026,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>50.553981</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>-110.124185</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1060,19 +1060,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>150</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>50.389935000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>-110.222343</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1128,19 +1128,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>250</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>51.454408000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>-110.459484</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1264,19 +1264,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>37.6</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>49.941651999999998</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="8">
         <v>-111.05394</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1366,53 +1366,53 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>200</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>49.611555000000003</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="8">
         <v>-111.14373500000001</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>266</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>49.11795</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="8">
         <v>-111.20680900000001</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>450</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>49.505369000000002</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="8">
         <v>-111.21256099999999</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1570,19 +1570,19 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>300</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="8">
         <v>49.31</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="8">
         <v>-112.93</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1621,19 +1621,19 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="8">
         <v>300</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="8">
         <v>49.219557000000002</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="8">
         <v>-113.681152</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1655,36 +1655,36 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="8">
         <v>22.4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="8">
         <v>49.476188999999998</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="8">
         <v>-114.01845900000001</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="8">
         <v>400</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="8">
         <v>54.758699999999997</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="8">
         <v>-115.5667</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="8" t="s">
         <v>30</v>
       </c>
     </row>

--- a/AESO_Connection_List.xlsx
+++ b/AESO_Connection_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74846B4-EF12-4083-BF4C-CFFA82257EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CE4E12-B041-464F-A931-A6B9552138F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{BF637F28-E94E-4F15-8C63-FF6873371EB3}"/>
+    <workbookView xWindow="5700" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{BF637F28-E94E-4F15-8C63-FF6873371EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -980,7 +980,7 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="A38:E38"/>
+      <selection activeCell="E11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,19 +1162,19 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>409</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>49.79</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <v>-110.55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>30</v>
       </c>
     </row>
